--- a/caton-d-q100/Project Outputs for caton-d-q100/BOM/Bill of Materials-caton-d-q100.xlsx
+++ b/caton-d-q100/Project Outputs for caton-d-q100/BOM/Bill of Materials-caton-d-q100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Repositories\caton-pcb\caton-d-q100\Project Outputs for caton-d-q100\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF0CBB9-CF2E-4C6F-A59D-15AD7BDC1383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65666474-94E8-4E3F-8D06-CAF2E1447262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="4104" windowWidth="20868" windowHeight="17436" xr2:uid="{8A43B114-BD80-48F5-AD66-D19940D22381}"/>
+    <workbookView xWindow="10980" yWindow="4104" windowWidth="25872" windowHeight="12804" xr2:uid="{08A91E5F-DA8F-4E25-8898-2FB85578D92A}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-caton-d-q100" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -65,28 +65,25 @@
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>RFANT3216120A5T</t>
-  </si>
-  <si>
-    <t>ANT1</t>
-  </si>
-  <si>
-    <t>Antenna</t>
-  </si>
-  <si>
-    <t>0.5 pF</t>
-  </si>
-  <si>
-    <t>C1</t>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
   </si>
   <si>
     <t>Capacitor, 0603, X5R, ±10%</t>
   </si>
   <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>C2</t>
+    <t>1 uF</t>
+  </si>
+  <si>
+    <t>C3, C5</t>
+  </si>
+  <si>
+    <t>100 nF</t>
+  </si>
+  <si>
+    <t>C4, C6</t>
   </si>
   <si>
     <t>53885-0408</t>
@@ -98,13 +95,14 @@
     <t>0.50mm Pitch SlimStack Plug, Surface Mount, Dual Row, Vertical, 2.50mm Stack Height, without Solder Tab, 40 Circuits</t>
   </si>
   <si>
-    <t>6.7 nH</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>Inductor, 0603</t>
+    <t>142-9701-811</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>Non-Magnetic_x000D_
+CONN SMA JACK STR 50OHM EDGE MNT</t>
   </si>
   <si>
     <t>0</t>
@@ -114,6 +112,15 @@
   </si>
   <si>
     <t>Resistor, 0603</t>
+  </si>
+  <si>
+    <t>TP_VIA</t>
+  </si>
+  <si>
+    <t>T1, T2, T3</t>
+  </si>
+  <si>
+    <t>Test point 1 pin</t>
   </si>
   <si>
     <t>SCuM-3C</t>
@@ -179,10 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -518,8 +528,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E1E9E2-5BAD-433D-96D8-BA3B09EF9914}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132EE187-7F91-42CD-BD87-09773FCE8687}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,29 +545,29 @@
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -574,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -589,43 +599,43 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -633,17 +643,17 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -653,15 +663,15 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -671,21 +681,39 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/caton-d-q100/Project Outputs for caton-d-q100/BOM/Bill of Materials-caton-d-q100.xlsx
+++ b/caton-d-q100/Project Outputs for caton-d-q100/BOM/Bill of Materials-caton-d-q100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Repositories\caton-pcb\caton-d-q100\Project Outputs for caton-d-q100\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65666474-94E8-4E3F-8D06-CAF2E1447262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E41FE7-D5D9-457C-8233-FF8FDAE6AF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="4104" windowWidth="25872" windowHeight="12804" xr2:uid="{08A91E5F-DA8F-4E25-8898-2FB85578D92A}"/>
+    <workbookView xWindow="10980" yWindow="4104" windowWidth="25872" windowHeight="12804" xr2:uid="{3D352CF0-0EBE-4A15-989E-4FCFA2410DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-caton-d-q100" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132EE187-7F91-42CD-BD87-09773FCE8687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5F7A04-975F-46A6-86C3-B35ACE799103}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
